--- a/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test2-missing-columns.xlsx
+++ b/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/test2-missing-columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/own_strong/Dev/Apromore-prod/ApromoreEE/ApromoreCore/Apromore-Custom-Plugins/CSVImporter-Logic/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2D63BE-058A-C24C-BC70-2A46A61C7BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022FC568-DA7A-0140-8C30-949EB7DE0F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test2-missing-columns" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>completion time</t>
   </si>
   <si>
-    <t xml:space="preserve"> process type</t>
-  </si>
-  <si>
     <t>case2</t>
   </si>
   <si>
@@ -56,12 +53,15 @@
   </si>
   <si>
     <t>2019-09-23T15:13:05.133</t>
+  </si>
+  <si>
+    <t>process type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -895,10 +895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -916,21 +918,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -938,24 +940,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
